--- a/WebContent/document/영화정보.xlsx
+++ b/WebContent/document/영화정보.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +35,6 @@
   </si>
   <si>
     <t>빅뱅 메이드</t>
-  </si>
-  <si>
-    <t>14:30, 17:00, 19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>09:15, 14:00, 16:30, 18:55, 21:30, 24:00</t>
@@ -217,6 +214,10 @@
     <t>영화 역사상 가장 아름다운 데뷔작! 
  고레에다 히로카즈 감독 첫 장편 연출작 &lt;환상의 빛&gt; 
  학창 시절 행방불명 된 할머니의 기억으로부터 자유롭지 못한 ‘유미코’는 동네에서 함께 자란 ‘이쿠오’와의 결혼 후 갓 태어난 아기를 돌보며 소소한 행복 속에 살고 있다. 하지만 여느 때와 다름없었던 어느 날, ‘이쿠오’의 자살은 평화롭던 ‘유미코’의 일상을 산산조각 낸다. 세월이 흘러 무뎌진 상처를 안고 재혼하게 된 그녀는 문득문득 일상을 파고드는 ‘이쿠오’의 기억으로 괴로워하는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30, 17:00, 19:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="99" x14ac:dyDescent="0.3">
@@ -607,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -618,65 +619,65 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="165" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="313.5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>0.76388888888888884</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="363" x14ac:dyDescent="0.3">
@@ -687,7 +688,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="330" x14ac:dyDescent="0.3">
@@ -695,32 +696,32 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="132" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="231" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <v>0.39583333333333331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
